--- a/data/trans_orig/P04B3_2_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P04B3_2_2023-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>193098</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>168636</v>
+        <v>170920</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>215686</v>
+        <v>218384</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.3871721545605532</v>
+        <v>0.3871721545605533</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3381242177571484</v>
+        <v>0.342704753535089</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4324623979327804</v>
+        <v>0.4378730988720744</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>293</v>
@@ -762,19 +762,19 @@
         <v>220235</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>198397</v>
+        <v>198107</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>240823</v>
+        <v>242440</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3535803366721909</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3185199575454781</v>
+        <v>0.3180547017632063</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3866330433422208</v>
+        <v>0.3892297071055478</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>475</v>
@@ -783,19 +783,19 @@
         <v>413334</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>381643</v>
+        <v>382452</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>446040</v>
+        <v>446597</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3685173784922718</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3402626539911864</v>
+        <v>0.3409840793817273</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3976778759250966</v>
+        <v>0.3981738359171012</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>95107</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>77713</v>
+        <v>77727</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>115377</v>
+        <v>116549</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.190693932302483</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1558188136790354</v>
+        <v>0.1558479476984868</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2313367560854218</v>
+        <v>0.2336868499169758</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>177</v>
@@ -833,19 +833,19 @@
         <v>132909</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>114507</v>
+        <v>115525</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>153749</v>
+        <v>155236</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2133810712005074</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1838375840373115</v>
+        <v>0.185471898735645</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2468385221699491</v>
+        <v>0.2492255468220362</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>270</v>
@@ -854,19 +854,19 @@
         <v>228016</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>202756</v>
+        <v>202554</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>256415</v>
+        <v>253329</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2032929377263384</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.180771980665644</v>
+        <v>0.1805914417415787</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2286125610911049</v>
+        <v>0.2258615482266232</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>73877</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>59229</v>
+        <v>56422</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>94987</v>
+        <v>92529</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1481271320892294</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1187580705302132</v>
+        <v>0.1131299317992275</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1904548302458765</v>
+        <v>0.1855264461710748</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>135</v>
@@ -904,19 +904,19 @@
         <v>92855</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>79070</v>
+        <v>79057</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>111743</v>
+        <v>110593</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.149075677886753</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1269445692670835</v>
+        <v>0.1269238121911955</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1793996264174329</v>
+        <v>0.1775532183916644</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>199</v>
@@ -925,19 +925,19 @@
         <v>166732</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>143578</v>
+        <v>143227</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>191608</v>
+        <v>190210</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1486538945735379</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1280103797823728</v>
+        <v>0.1276972526348184</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1708331289964947</v>
+        <v>0.1695862735497602</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>136658</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>116177</v>
+        <v>115614</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>160778</v>
+        <v>163144</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.2740067810477345</v>
+        <v>0.2740067810477344</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2329419062683153</v>
+        <v>0.231812372399693</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3223681652264687</v>
+        <v>0.327113274210759</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>255</v>
@@ -975,19 +975,19 @@
         <v>176873</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>157014</v>
+        <v>156944</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>199373</v>
+        <v>198192</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2839629142405486</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2520806334158491</v>
+        <v>0.2519682336116931</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3200867342145959</v>
+        <v>0.3181899663081748</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>371</v>
@@ -996,19 +996,19 @@
         <v>313531</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>281573</v>
+        <v>284929</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>344413</v>
+        <v>349121</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2795357892078518</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2510434604260996</v>
+        <v>0.2540354034176499</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3070694671048089</v>
+        <v>0.3112670527139508</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>257190</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>229372</v>
+        <v>227212</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>288171</v>
+        <v>288360</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.2683269651843341</v>
+        <v>0.2683269651843342</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2393042470466512</v>
+        <v>0.2370507519950293</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3006494100882951</v>
+        <v>0.3008465244325568</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>380</v>
@@ -1121,19 +1121,19 @@
         <v>278416</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>256737</v>
+        <v>255075</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>302984</v>
+        <v>305231</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2498200035608034</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.230367381594754</v>
+        <v>0.2288760280270528</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.271864294714267</v>
+        <v>0.2738811024531996</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>638</v>
@@ -1142,19 +1142,19 @@
         <v>535606</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>497307</v>
+        <v>498548</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>577109</v>
+        <v>574594</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2583772367782499</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2399015394664008</v>
+        <v>0.2405002995772997</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2783985298842097</v>
+        <v>0.2771851503220699</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>146425</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>123617</v>
+        <v>124987</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>170352</v>
+        <v>172684</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1527653930888579</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1289703751102968</v>
+        <v>0.1303995172945097</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1777291839045064</v>
+        <v>0.1801621188547841</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>279</v>
@@ -1192,19 +1192,19 @@
         <v>188022</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>169199</v>
+        <v>168519</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>210214</v>
+        <v>209338</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1687106626869371</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1518205036528335</v>
+        <v>0.151210808043117</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1886229500703697</v>
+        <v>0.187836537379686</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>424</v>
@@ -1213,19 +1213,19 @@
         <v>334447</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>302536</v>
+        <v>300072</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>368764</v>
+        <v>366852</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1613379024553313</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1459439645950772</v>
+        <v>0.1447552054020624</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1778923528425831</v>
+        <v>0.1769701837492588</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>227347</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>199131</v>
+        <v>197152</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>259919</v>
+        <v>260646</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.2371915984803693</v>
+        <v>0.2371915984803694</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.20775414911038</v>
+        <v>0.2056888735379825</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2711746811469411</v>
+        <v>0.2719331265059143</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>338</v>
@@ -1263,19 +1263,19 @@
         <v>241883</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>220885</v>
+        <v>216462</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>269330</v>
+        <v>266695</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2170393109792718</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1981974441394287</v>
+        <v>0.1942293719936133</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.241667234871605</v>
+        <v>0.2393023397343956</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>531</v>
@@ -1284,19 +1284,19 @@
         <v>469230</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>433737</v>
+        <v>430475</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>507663</v>
+        <v>511418</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2263573085803834</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2092356685963548</v>
+        <v>0.2076616638141189</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2448973782007973</v>
+        <v>0.2467091313618809</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>327533</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>297636</v>
+        <v>299107</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>362227</v>
+        <v>363154</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3417160432464386</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3105247907003122</v>
+        <v>0.3120589975119958</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3779122709629063</v>
+        <v>0.378879690186233</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>608</v>
@@ -1334,19 +1334,19 @@
         <v>406145</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>378040</v>
+        <v>378784</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>433244</v>
+        <v>435543</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3644300227729877</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3392118446604595</v>
+        <v>0.3398791093893622</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3887457967702175</v>
+        <v>0.390808782004356</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>921</v>
@@ -1355,19 +1355,19 @@
         <v>733678</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>690361</v>
+        <v>692739</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>775120</v>
+        <v>773961</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3539275521860354</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3330312030112973</v>
+        <v>0.3341787234818498</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3739191660324819</v>
+        <v>0.3733600744736985</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>187944</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>162914</v>
+        <v>161960</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>216873</v>
+        <v>214483</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1795966958362465</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1556780294702753</v>
+        <v>0.1547666359769055</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2072411215487873</v>
+        <v>0.2049570434264343</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>233</v>
@@ -1480,19 +1480,19 @@
         <v>175874</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>155107</v>
+        <v>154457</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>200092</v>
+        <v>199958</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.168031095292867</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1481904210375018</v>
+        <v>0.1475699164846222</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1911692278620173</v>
+        <v>0.1910415669557491</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>422</v>
@@ -1501,19 +1501,19 @@
         <v>363818</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>331012</v>
+        <v>331063</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>400933</v>
+        <v>400788</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1738133601123192</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1581403070036767</v>
+        <v>0.1581646454517616</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1915449326998863</v>
+        <v>0.1914758091569698</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>144086</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>121361</v>
+        <v>121627</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>173304</v>
+        <v>171065</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1376864291483718</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1159712403308922</v>
+        <v>0.1162253167247925</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1656068929122671</v>
+        <v>0.1634673500504244</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>172</v>
@@ -1551,19 +1551,19 @@
         <v>126140</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>106271</v>
+        <v>108083</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>145998</v>
+        <v>145690</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1205151847703502</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1015322275207142</v>
+        <v>0.103263684732811</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1394876379547202</v>
+        <v>0.1391930284092022</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>310</v>
@@ -1572,19 +1572,19 @@
         <v>270226</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>243173</v>
+        <v>239628</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>303923</v>
+        <v>303153</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1291000119828106</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1161755441213988</v>
+        <v>0.1144818150478452</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1451987843500512</v>
+        <v>0.1448306455210316</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>209987</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>183470</v>
+        <v>184880</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>237702</v>
+        <v>241634</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2006607908977515</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1753214301075143</v>
+        <v>0.1766690789365396</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2271441324073704</v>
+        <v>0.2309017510448282</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>297</v>
@@ -1622,19 +1622,19 @@
         <v>222419</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>200238</v>
+        <v>198114</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>247747</v>
+        <v>246650</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2125011601551434</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1913094215443231</v>
+        <v>0.1892794558295564</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2366994079162876</v>
+        <v>0.235651007432369</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>498</v>
@@ -1643,19 +1643,19 @@
         <v>432407</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>394481</v>
+        <v>397259</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>466940</v>
+        <v>475415</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2065815236996433</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1884626742282794</v>
+        <v>0.189789944573109</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.223079662404591</v>
+        <v>0.2271287308451792</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>504462</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>468580</v>
+        <v>470235</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>540763</v>
+        <v>541961</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4820560841176302</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.447768376765946</v>
+        <v>0.4493494180434965</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5167447789118614</v>
+        <v>0.5178901097237305</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>813</v>
@@ -1693,19 +1693,19 @@
         <v>522240</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>493434</v>
+        <v>492976</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>552595</v>
+        <v>548052</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4989525597816394</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4714311794915294</v>
+        <v>0.4709931524289514</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5279539543810428</v>
+        <v>0.5236138305871588</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1314</v>
@@ -1714,19 +1714,19 @@
         <v>1026702</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>984235</v>
+        <v>984126</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1075281</v>
+        <v>1071622</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.490505104205227</v>
+        <v>0.4905051042052269</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4702166946863008</v>
+        <v>0.4701648175660366</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5137137743251832</v>
+        <v>0.5119655681402034</v>
       </c>
     </row>
     <row r="18">
@@ -1818,19 +1818,19 @@
         <v>51487</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>39030</v>
+        <v>39158</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>66529</v>
+        <v>67048</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.05275643291407577</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03999234850582557</v>
+        <v>0.04012418720101436</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06816962240531574</v>
+        <v>0.06870182882300176</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>77</v>
@@ -1839,19 +1839,19 @@
         <v>51791</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>41406</v>
+        <v>40589</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>64557</v>
+        <v>64330</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0568913407547731</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04548383226117505</v>
+        <v>0.04458634836018647</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0709151390524877</v>
+        <v>0.07066562558766504</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>136</v>
@@ -1860,19 +1860,19 @@
         <v>103277</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>86202</v>
+        <v>87216</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>123517</v>
+        <v>124359</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.05475200316160433</v>
+        <v>0.05475200316160431</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04569951185565772</v>
+        <v>0.04623702881736987</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06548220717829227</v>
+        <v>0.06592835714816858</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>92237</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>73977</v>
+        <v>73350</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>113935</v>
+        <v>111251</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.09451194235614409</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0758015822200435</v>
+        <v>0.07515867978968958</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1167455346470812</v>
+        <v>0.1139953648426181</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>115</v>
@@ -1910,19 +1910,19 @@
         <v>78256</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>65071</v>
+        <v>65779</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>94631</v>
+        <v>94221</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.08596284884489115</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.07147939668661138</v>
+        <v>0.07225762602153402</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1039509474040691</v>
+        <v>0.1034999398069136</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>204</v>
@@ -1931,19 +1931,19 @@
         <v>170493</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>146243</v>
+        <v>147831</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>195193</v>
+        <v>196227</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.09038601807641006</v>
+        <v>0.09038601807641004</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.07753019523450906</v>
+        <v>0.07837176173242603</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1034805047415558</v>
+        <v>0.1040286670112218</v>
       </c>
     </row>
     <row r="21">
@@ -1960,19 +1960,19 @@
         <v>170463</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>146399</v>
+        <v>147041</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>195791</v>
+        <v>200405</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1746669835980398</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1500103552224668</v>
+        <v>0.1506681219620456</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2006199554058454</v>
+        <v>0.2053483198084532</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>179</v>
@@ -1981,19 +1981,19 @@
         <v>137148</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>118138</v>
+        <v>118825</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>158064</v>
+        <v>157952</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1506554027668146</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1297726233937586</v>
+        <v>0.1305279607099679</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1736311925930643</v>
+        <v>0.1735077514465795</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>342</v>
@@ -2002,19 +2002,19 @@
         <v>307611</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>276047</v>
+        <v>275240</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>340098</v>
+        <v>341425</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.1630786246432634</v>
+        <v>0.1630786246432633</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1463452128147781</v>
+        <v>0.1459170482689199</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1803016376139284</v>
+        <v>0.1810050882071829</v>
       </c>
     </row>
     <row r="22">
@@ -2031,19 +2031,19 @@
         <v>661743</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>629103</v>
+        <v>628334</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>692748</v>
+        <v>692345</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.6780646411317405</v>
+        <v>0.6780646411317404</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6446193825651143</v>
+        <v>0.6438317188928847</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7098340884903215</v>
+        <v>0.7094210605230352</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>953</v>
@@ -2052,19 +2052,19 @@
         <v>643150</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>619029</v>
+        <v>616535</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>667741</v>
+        <v>664154</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7064904076335213</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6799939346918801</v>
+        <v>0.6772545500168115</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7335028264753622</v>
+        <v>0.7295624271107303</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1589</v>
@@ -2073,19 +2073,19 @@
         <v>1304893</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1266285</v>
+        <v>1262472</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1346384</v>
+        <v>1342271</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.6917833541187224</v>
+        <v>0.6917833541187223</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6713156495768485</v>
+        <v>0.669294063398455</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7137794791834569</v>
+        <v>0.7115993505199688</v>
       </c>
     </row>
     <row r="23">
@@ -2177,19 +2177,19 @@
         <v>689719</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>644507</v>
+        <v>639657</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>743468</v>
+        <v>741074</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1982153838306154</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1852223044368727</v>
+        <v>0.1838285248703548</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2136622146390611</v>
+        <v>0.2129743064881984</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>983</v>
@@ -2198,19 +2198,19 @@
         <v>726316</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>683453</v>
+        <v>684571</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>771515</v>
+        <v>769875</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.196601429215753</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1849992007970076</v>
+        <v>0.1853018574989008</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2088359674891672</v>
+        <v>0.2083921311179383</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1671</v>
@@ -2219,19 +2219,19 @@
         <v>1416034</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1347737</v>
+        <v>1351983</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1488082</v>
+        <v>1483944</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.1973842539224205</v>
+        <v>0.1973842539224204</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1878640955273406</v>
+        <v>0.1884560366165508</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2074270879428705</v>
+        <v>0.2068503220172881</v>
       </c>
     </row>
     <row r="25">
@@ -2248,19 +2248,19 @@
         <v>477854</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>435328</v>
+        <v>436038</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>522522</v>
+        <v>527834</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1373285712128099</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1251070375926767</v>
+        <v>0.1253111257625976</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1501653166949165</v>
+        <v>0.1516921457536341</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>743</v>
@@ -2269,19 +2269,19 @@
         <v>525327</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>490904</v>
+        <v>487266</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>567755</v>
+        <v>564084</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.1421972564477554</v>
+        <v>0.1421972564477555</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1328795011348622</v>
+        <v>0.1318947527656013</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1536817781090155</v>
+        <v>0.1526879151509271</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1208</v>
@@ -2290,19 +2290,19 @@
         <v>1003182</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>943275</v>
+        <v>946220</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1059890</v>
+        <v>1067493</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.1398357730108576</v>
+        <v>0.1398357730108577</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1314852840653062</v>
+        <v>0.1318957807147954</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1477404334301272</v>
+        <v>0.1488003137113372</v>
       </c>
     </row>
     <row r="26">
@@ -2319,19 +2319,19 @@
         <v>681674</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>631550</v>
+        <v>626168</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>739062</v>
+        <v>729770</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.195903358087499</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1814986521483483</v>
+        <v>0.179951921007</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.212395903833857</v>
+        <v>0.2097256501656943</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>949</v>
@@ -2340,19 +2340,19 @@
         <v>694306</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>651723</v>
+        <v>652831</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>739972</v>
+        <v>739773</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1879368513461813</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1764104767917817</v>
+        <v>0.17671024167056</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.200297991587949</v>
+        <v>0.2002440845351184</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1570</v>
@@ -2361,19 +2361,19 @@
         <v>1375979</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1312910</v>
+        <v>1311025</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1445626</v>
+        <v>1445565</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1918008870789754</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1830095246161614</v>
+        <v>0.18274676159984</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2015091456471794</v>
+        <v>0.2015005871439387</v>
       </c>
     </row>
     <row r="27">
@@ -2390,19 +2390,19 @@
         <v>1630396</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>1565458</v>
+        <v>1563610</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>1695135</v>
+        <v>1696929</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.4685526868690758</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.449890533939953</v>
+        <v>0.4493593768900859</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4871577725319265</v>
+        <v>0.4876734795730815</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>2629</v>
@@ -2411,19 +2411,19 @@
         <v>1748408</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>1690707</v>
+        <v>1692020</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>1800347</v>
+        <v>1798819</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.4732644629903101</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.4576457635435633</v>
+        <v>0.4580012190470574</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.4873234164914206</v>
+        <v>0.4869099188951478</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>4195</v>
@@ -2432,19 +2432,19 @@
         <v>3378803</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>3299533</v>
+        <v>3287149</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>3471508</v>
+        <v>3455583</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.4709790859877465</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.4599294297297609</v>
+        <v>0.4582031885497378</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.4839013815987674</v>
+        <v>0.4816815868600915</v>
       </c>
     </row>
     <row r="28">
